--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_120.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_120.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,670 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1135714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['G', 'B', 'E:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:22.778458', '0:00:28.978185')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:11.072653', '0:01:14.544036')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['B:dim7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[('0:00:18.320000', '0:00:21.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[('0:01:34.800000', '0:01:46.960000'), ('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:27.360000', '0:00:34.920000'), ('0:01:19.420000', '0:01:26.020000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[('0:01:12.520000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/b7']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972)]</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.56, 4.26)]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.78, 12.46)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1165,9 @@
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.36, 44.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.1, 13.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
